--- a/myapp/files/9_MethodComparePercent/Scenario 366.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 366.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2196</v>
+        <v>9339</v>
       </c>
       <c r="F2" t="n">
-        <v>3.34292368817646</v>
+        <v>1.63899901544229</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38095238095238</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1133</v>
+        <v>12984</v>
       </c>
       <c r="F3" t="n">
-        <v>1.72474159321673</v>
+        <v>2.27869827781376</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.76190476190476</v>
+        <v>2.47349823321555</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1617</v>
+        <v>20974</v>
       </c>
       <c r="F4" t="n">
-        <v>2.46152440973649</v>
+        <v>3.68094714100937</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.76190476190476</v>
+        <v>2.82685512367491</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>897</v>
+        <v>23297</v>
       </c>
       <c r="F5" t="n">
-        <v>1.36548385623601</v>
+        <v>4.08863476418878</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38095238095238</v>
+        <v>2.82685512367491</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>17796</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.1232066044342</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.12014134275618</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9678</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.69849367935009</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.12014134275618</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>16397</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.87768142801233</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.82685512367491</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1258</v>
+        <v>32381</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91502641153278</v>
+        <v>5.68288115633759</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38095238095238</v>
+        <v>4.59363957597173</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>119</v>
+        <v>34753</v>
       </c>
       <c r="F10" t="n">
-        <v>0.181151147036885</v>
+        <v>6.09916830320868</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38095238095238</v>
+        <v>4.59363957597173</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23645</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.14970893244811</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.47349823321555</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>700</v>
+        <v>4933</v>
       </c>
       <c r="F12" t="n">
-        <v>1.06559498256991</v>
+        <v>0.865743885124404</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.38095238095238</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2477</v>
+        <v>12100</v>
       </c>
       <c r="F13" t="n">
-        <v>3.77068395975096</v>
+        <v>2.12355585039637</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1011,10 +1011,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>7.14285714285714</v>
+        <v>3.18021201413428</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7783</v>
+        <v>52780</v>
       </c>
       <c r="F14" t="n">
-        <v>11.8478939276309</v>
+        <v>9.26291551933226</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1049,10 +1049,10 @@
         <v>14.7058823529412</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>9.52380952380952</v>
+        <v>8.12720848056537</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>4824</v>
+        <v>52063</v>
       </c>
       <c r="F15" t="n">
-        <v>7.34347170845321</v>
+        <v>9.13708167266001</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
-        <v>9.52380952380952</v>
+        <v>8.8339222614841</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>9952</v>
+        <v>30172</v>
       </c>
       <c r="F16" t="n">
-        <v>15.1497160950511</v>
+        <v>5.29520058827762</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>9.52380952380952</v>
+        <v>5.30035335689046</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>592</v>
+        <v>5072</v>
       </c>
       <c r="F17" t="n">
-        <v>0.901188899544839</v>
+        <v>0.890138452331436</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38095238095238</v>
+        <v>1.06007067137809</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>960</v>
+        <v>14219</v>
       </c>
       <c r="F18" t="n">
-        <v>1.46138740466731</v>
+        <v>2.49544137494099</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38095238095238</v>
+        <v>2.47349823321555</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>3171</v>
+        <v>36307</v>
       </c>
       <c r="F19" t="n">
-        <v>4.8271452710417</v>
+        <v>6.37189605457363</v>
       </c>
       <c r="G19" t="n">
         <v>8</v>
@@ -1239,10 +1239,10 @@
         <v>11.7647058823529</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>4.76190476190476</v>
+        <v>7.42049469964664</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3460</v>
+        <v>60348</v>
       </c>
       <c r="F20" t="n">
-        <v>5.26708377098842</v>
+        <v>10.5911031784893</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
@@ -1277,16 +1277,16 @@
         <v>27.9411764705882</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>4.76190476190476</v>
+        <v>9.18727915194346</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>14.7058823529412</v>
+        <v>16.1764705882353</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>26587</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.66603135491638</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1315,16 +1315,16 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.9469964664311</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.41176470588235</v>
+        <v>2.94117647058824</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1763</v>
+        <v>4301</v>
       </c>
       <c r="F22" t="n">
-        <v>2.68377707752965</v>
+        <v>0.754827579549982</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38095238095238</v>
+        <v>1.06007067137809</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3483</v>
+        <v>12390</v>
       </c>
       <c r="F23" t="n">
-        <v>5.30209617755857</v>
+        <v>2.17445099061248</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38095238095238</v>
+        <v>2.12014134275618</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>11553</v>
+        <v>23400</v>
       </c>
       <c r="F24" t="n">
-        <v>17.5868840480431</v>
+        <v>4.10671131398967</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
-        <v>9.52380952380952</v>
+        <v>5.30035335689046</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>4783</v>
+        <v>21936</v>
       </c>
       <c r="F25" t="n">
-        <v>7.28105828804555</v>
+        <v>3.84977860614006</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>7.14285714285714</v>
+        <v>6.00706713780919</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2970</v>
+        <v>11947</v>
       </c>
       <c r="F26" t="n">
-        <v>4.52116728318948</v>
+        <v>2.09670427642028</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>7.14285714285714</v>
+        <v>4.59363957597173</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
